--- a/123.xlsx
+++ b/123.xlsx
@@ -964,7 +964,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -976,7 +976,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">

--- a/123.xlsx
+++ b/123.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10295"/>
+    <workbookView windowWidth="23028" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -961,13 +961,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
@@ -1002,6 +1002,11 @@
     <row r="7" spans="1:1">
       <c r="A7">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/123.xlsx
+++ b/123.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10295"/>
+    <workbookView windowWidth="23028" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -961,13 +961,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
@@ -976,7 +976,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1002,6 +1002,11 @@
     <row r="7" spans="1:1">
       <c r="A7">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
